--- a/biology/Botanique/Super_plantes/Super_plantes.xlsx
+++ b/biology/Botanique/Super_plantes/Super_plantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Super plantes est une série documentaire en 6 épisodes de 52 minutes, produite par Télé Images Nature et diffusée à partir du 23 mars 2003 sur France 5, et rediffusée sur Ushuaïa TV.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série est consacrée aux plantes extraordinaires qui intriguent les scientifiques. Tournée aux quatre coins de la Terre, les scientifiques tentent de percer les mystères de ces plantes à faculté incroyable, telle les acacias qui agiraient de manière concertée pour se défendre contre les antilopes, ou bien le Ginkgo biloba ayant survécu à la bombe d'Hiroshima. 
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Auteur : Éric Gonzalez
 Réalisateur : Laurent Frapat, Jean-Luc Guidoin, Guillaume Levis, Éric Gonzalez, Serge Marcil, Emmanuel Roblin
@@ -603,7 +621,9 @@
           <t>Vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La série documentaire est sortie en 2003 en coffret 2 vidéocassettes, et en édition 2 DVD.
  Portail de la télévision   Portail de la botanique                    </t>
